--- a/data/quadrant/quadrant3_RP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant3_RP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06286279548330492</v>
+        <v>-0.06286276076650822</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1283279094684994</v>
+        <v>-0.1283277175667869</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1428978075567683</v>
+        <v>0.142897619948998</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06258907886836669</v>
+        <v>-0.06258904392007117</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1280477671846927</v>
+        <v>-0.1280475714607964</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1425258694924394</v>
+        <v>0.1425256783033723</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08601216791785579</v>
+        <v>-0.08601215875468583</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1128932021249987</v>
+        <v>-0.1128923228609897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1419259247493749</v>
+        <v>0.1419252197975794</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1318979157869233</v>
+        <v>-0.1318978923724174</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0001697628496051389</v>
+        <v>-0.0001564169293228678</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1318980250358564</v>
+        <v>0.1318979851193398</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.0829601180691527</v>
+        <v>-0.08296011793338225</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09577768123630208</v>
+        <v>-0.09577069264276625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1267112679008874</v>
+        <v>0.1267059854024106</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05598608656975149</v>
+        <v>-0.05598605383904651</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1093254010517587</v>
+        <v>-0.1093213220247032</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1228270540415408</v>
+        <v>0.1228234084924265</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04985342669701526</v>
+        <v>-0.04985340619121826</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1082247434402659</v>
+        <v>-0.1082301352008119</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1191551897575009</v>
+        <v>0.1191600783587046</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.04449998710613171</v>
+        <v>-0.0444999635644481</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1089123007051813</v>
+        <v>-0.1089065396986295</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1176526161942085</v>
+        <v>0.1176472742836245</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02815816093034387</v>
+        <v>-0.02815814249123873</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1124122801544522</v>
+        <v>-0.1124089608621853</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1158853000017784</v>
+        <v>0.1158820757092019</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04108161527431192</v>
+        <v>-0.04108166066421081</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1068475546486503</v>
+        <v>-0.1068498475610886</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1144731367961186</v>
+        <v>0.1144752932591013</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07816459373370901</v>
+        <v>-0.07816459867810975</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08008363573207722</v>
+        <v>-0.08007614603300374</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1119066236896808</v>
+        <v>0.1119012674191356</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08307884208868803</v>
+        <v>-0.08307881790505441</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07321793451495821</v>
+        <v>-0.07320057000688494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1107382496585253</v>
+        <v>0.1107267512114126</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08304976656569364</v>
+        <v>-0.08304974220858825</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.07310453763103522</v>
+        <v>-0.07308725546353552</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1106414802362281</v>
+        <v>0.1106300438041361</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0803316791039636</v>
+        <v>-0.08033166564112443</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07557635365674595</v>
+        <v>-0.07555907417231519</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1102948951661486</v>
+        <v>0.110283045816004</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08852425398924851</v>
+        <v>-0.08852430140619803</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06502951409923308</v>
+        <v>-0.06503567688431262</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1098425293241891</v>
+        <v>0.109846216171774</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1003264142982667</v>
+        <v>-0.1003264552441188</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.03586926292629211</v>
+        <v>-0.0358757667019397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1065457339775878</v>
+        <v>0.106547962243781</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03639955359720486</v>
+        <v>-0.03639952311429387</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09774258865668281</v>
+        <v>-0.09774159312242098</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1043002451549625</v>
+        <v>0.1042993015751156</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03590843636917744</v>
+        <v>-0.03590840560072181</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09710535241640185</v>
+        <v>-0.09710433618201403</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1035319528956779</v>
+        <v>0.1035309890715603</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07905394763327228</v>
+        <v>-0.07905394383875486</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06472272561856521</v>
+        <v>-0.06471826443163438</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1021692607778887</v>
+        <v>0.102166431803719</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07141796479603162</v>
+        <v>-0.07141795057735516</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06899553139777874</v>
+        <v>-0.06897948432347917</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09930210999001524</v>
+        <v>0.09929095085758144</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08390839147550556</v>
+        <v>-0.08390839033903125</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.04790116164511332</v>
+        <v>-0.04789749981631864</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09661852538182297</v>
+        <v>0.09661670899974537</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.03267174264650645</v>
+        <v>-0.03267178521352771</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08667341420906559</v>
+        <v>-0.08667739420826207</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09262679686902597</v>
+        <v>0.09263053608704502</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0228896158797658</v>
+        <v>-0.0228896673693903</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08866390361409726</v>
+        <v>-0.08867171026498435</v>
       </c>
       <c r="D24" t="n">
-        <v>0.09157085955266095</v>
+        <v>0.0915784312684961</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05305792353181538</v>
+        <v>-0.05305794002328015</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07414863263084215</v>
+        <v>-0.07415226336641231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0911765483582898</v>
+        <v>0.09117951064727078</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.0304411813910004</v>
+        <v>-0.03044122595067075</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08470319742051104</v>
+        <v>-0.08470755993997864</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09000720625448751</v>
+        <v>0.0900113267781609</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.06904687328300717</v>
+        <v>-0.06904688691901634</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.05046362528632311</v>
+        <v>-0.05046435216733818</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08552220873666722</v>
+        <v>0.08552264865447373</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.07588636805734297</v>
+        <v>-0.075886378330207</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.03657009769399596</v>
+        <v>-0.03656800338040255</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08423842889253653</v>
+        <v>0.08423752897197569</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.04855634065524853</v>
+        <v>-0.04855633759647505</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.06759613039229942</v>
+        <v>-0.06758379857207013</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08322833088462898</v>
+        <v>0.08321831379097396</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.05457014132916004</v>
+        <v>-0.05457016099212066</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.06242526682124618</v>
+        <v>-0.06242752671680313</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08291449971137907</v>
+        <v>0.08291621411209714</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1221,13 +1221,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.05917899211569768</v>
+        <v>-0.0591790094911057</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05500442219399975</v>
+        <v>-0.05500542605768189</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08079380897522769</v>
+        <v>0.08079450513577943</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.05942031581331939</v>
+        <v>-0.05942033780254541</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05173902501407533</v>
+        <v>-0.05173958250973269</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07878896268362548</v>
+        <v>0.07878934536376123</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1273,13 +1273,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02858220231250047</v>
+        <v>-0.02858222762421465</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07190858369607191</v>
+        <v>-0.07190735171968124</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07738079024026367</v>
+        <v>0.07737965473753655</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.03862050638445256</v>
+        <v>-0.03862047126307679</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06704081243630843</v>
+        <v>-0.06704047180110484</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07736933530483396</v>
+        <v>0.07736902261174607</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01652845185162023</v>
+        <v>-0.01652838099844435</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07444149334435048</v>
+        <v>-0.07443582058807861</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07625434841337447</v>
+        <v>0.07624879517113936</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.05243027431337694</v>
+        <v>-0.05243025464287924</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.05529633043217645</v>
+        <v>-0.05528510804434758</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07620116681416629</v>
+        <v>0.07619301000349274</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.07022411594130672</v>
+        <v>-0.07022413024320943</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.02762568613990715</v>
+        <v>-0.02762197403128245</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07546260659716669</v>
+        <v>0.07546126104035158</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.04857988822326552</v>
+        <v>-0.04857986773593001</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.05574158625463531</v>
+        <v>-0.05573000829102796</v>
       </c>
       <c r="D38" t="n">
-        <v>0.073940043129335</v>
+        <v>0.07393130171556901</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.04172533497614896</v>
+        <v>-0.04172533870672684</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.06016398604016614</v>
+        <v>-0.06015476361983341</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07321686141260868</v>
+        <v>0.07320928545170421</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.05665340075423053</v>
+        <v>-0.05665342425032211</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.0437491322051266</v>
+        <v>-0.04374976202652252</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0715792874071899</v>
+        <v>0.07157969095116531</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.0156230259325858</v>
+        <v>-0.01562295721839542</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06697190309637044</v>
+        <v>-0.06696732274483878</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06877001340438928</v>
+        <v>0.06876553721057675</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02577230709202333</v>
+        <v>-0.02577223924077599</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0616907872269857</v>
+        <v>-0.0616846602168114</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06685779716331355</v>
+        <v>0.06685211755469882</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1533,13 +1533,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.03503515148680115</v>
+        <v>-0.03503513896259198</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.05490500688822649</v>
+        <v>-0.05490533610121895</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06513080393407794</v>
+        <v>0.06513107472256195</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.04909068891915525</v>
+        <v>-0.04909070678203549</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.03978664803940703</v>
+        <v>-0.03978753525663607</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06318918499845462</v>
+        <v>0.06318975750988323</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.04796772413964601</v>
+        <v>-0.04796774650416522</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.03943691554133709</v>
+        <v>-0.03943764209156893</v>
       </c>
       <c r="D45" t="n">
-        <v>0.06209809068362515</v>
+        <v>0.0620985693750713</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.01749231353760956</v>
+        <v>-0.01749224238306576</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.05957274075123316</v>
+        <v>-0.05956892666785749</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06208778038802543</v>
+        <v>0.06208410076620668</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.03331292942469689</v>
+        <v>-0.03331293842000247</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.05158197507891127</v>
+        <v>-0.05158338760730591</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06140400166028481</v>
+        <v>0.06140519312908671</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02891335533175895</v>
+        <v>-0.02891336647243271</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.05324674553341438</v>
+        <v>-0.05324700328160591</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06059041200091594</v>
+        <v>0.06059064382592866</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1689,13 +1689,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.05266274470457263</v>
+        <v>-0.0526627828370096</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.02946888627925709</v>
+        <v>-0.02947128501609387</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06034716180864499</v>
+        <v>0.06034836647862037</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.05248877168861452</v>
+        <v>-0.05248881033641063</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.02972002752657232</v>
+        <v>-0.02972238798962925</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0603187465847867</v>
+        <v>0.06031994328858196</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.03754076222140409</v>
+        <v>-0.03754073224360154</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.04165112311406573</v>
+        <v>-0.04165075443363708</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05607249668801151</v>
+        <v>0.05607220275927211</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02866603440009555</v>
+        <v>-0.02866602568538295</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.0469163620119723</v>
+        <v>-0.04691622373399993</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05498078348537695</v>
+        <v>0.05498066094595239</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.03000595679854545</v>
+        <v>-0.03000597208708071</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.04603688200192185</v>
+        <v>-0.04604085192386383</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05495226972432578</v>
+        <v>0.05495560396143256</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.04078424532572696</v>
+        <v>-0.04078428150523888</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.03516973336472588</v>
+        <v>-0.03517418110974291</v>
       </c>
       <c r="D54" t="n">
-        <v>0.05385410673045273</v>
+        <v>0.0538570388588118</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.01615338261841806</v>
+        <v>-0.01615331292536289</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.05083620619412035</v>
+        <v>-0.05083283657525309</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05334090016327181</v>
+        <v>0.05333766767258467</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.02314859225204864</v>
+        <v>-0.02314853118511727</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.047020006656527</v>
+        <v>-0.04701549120071077</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0524093345619981</v>
+        <v>0.05240525650039754</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.04277591500430157</v>
+        <v>-0.04277593315699511</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02975282754904093</v>
+        <v>-0.02975617321657958</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05210575449619937</v>
+        <v>0.05210767987491672</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.03212233755925509</v>
+        <v>-0.03212228757367495</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.03953279324299354</v>
+        <v>-0.03952732171915342</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05093806348757288</v>
+        <v>0.05093378565603906</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.007244865283115355</v>
+        <v>-0.00724480013861576</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05017343374596624</v>
+        <v>-0.05017079550253611</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05069380166086732</v>
+        <v>0.05069118118968807</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.0447593658252699</v>
+        <v>-0.04475939040132734</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.0165156444559075</v>
+        <v>-0.016518208044798</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04770919555886776</v>
+        <v>0.04771010612134146</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.03704913332420478</v>
+        <v>-0.037049124957026</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02638067608746788</v>
+        <v>-0.02637239027722662</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04548162652002015</v>
+        <v>0.04547681419158211</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2027,13 +2027,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02191434776097334</v>
+        <v>-0.02191435414867571</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.03944024044780507</v>
+        <v>-0.03944807756862054</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04511952132247811</v>
+        <v>0.04512637523237915</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2053,13 +2053,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.04254510967395686</v>
+        <v>-0.04254511744820546</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01472915736206595</v>
+        <v>-0.01472647135318309</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04502259914493519</v>
+        <v>0.04502172783443256</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2079,13 +2079,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01987181665857582</v>
+        <v>-0.01987182314628376</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.04007889540313524</v>
+        <v>-0.0400869533672386</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04473485167123623</v>
+        <v>0.04474207399556195</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02133214832246804</v>
+        <v>-0.02133215357985057</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.03868567418478883</v>
+        <v>-0.03869353547691212</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04417739172001232</v>
+        <v>0.04418427847161689</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.04007753769477122</v>
+        <v>-0.0400775553199067</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.01622646865126845</v>
+        <v>-0.0162301738393385</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04323779958053376</v>
+        <v>0.04323920655233315</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02052560910316963</v>
+        <v>-0.02052561572493444</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.03700612987046661</v>
+        <v>-0.03701365842068574</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04231730469968475</v>
+        <v>0.04232389172288952</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02082337235724313</v>
+        <v>-0.02082337701645593</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.03642048906238066</v>
+        <v>-0.03642829720779055</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04195312693794572</v>
+        <v>0.04195990786248924</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.02150088134114782</v>
+        <v>-0.02150088694891023</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03602180567285994</v>
+        <v>-0.03602932374960366</v>
       </c>
       <c r="D69" t="n">
-        <v>0.04195066605406168</v>
+        <v>0.0419571246565297</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.01990293021185197</v>
+        <v>-0.01990293424524239</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03672275431611837</v>
+        <v>-0.03673052357824292</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04176945433663026</v>
+        <v>0.0417762869808017</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.008510689956506655</v>
+        <v>-0.00851064021779002</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.04005946112478464</v>
+        <v>-0.04005878557385707</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04095353793195302</v>
+        <v>0.04095286679304544</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01583689990105849</v>
+        <v>-0.01583690644309593</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.03774841293223755</v>
+        <v>-0.03775734543423534</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04093592648736395</v>
+        <v>0.04094416612812558</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2313,13 +2313,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.03531831485380532</v>
+        <v>-0.03531826457806705</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.01773817634235753</v>
+        <v>-0.0177306801329032</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03952247795957508</v>
+        <v>0.03951906920439389</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2339,13 +2339,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.01353005270519077</v>
+        <v>-0.01353005128809129</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.03603257501794597</v>
+        <v>-0.03603293977457597</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03848907362653906</v>
+        <v>0.03848941460527296</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.01487136633617914</v>
+        <v>-0.014871361886847</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.03456469145549448</v>
+        <v>-0.03456619136931031</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03762812023099713</v>
+        <v>0.03762949627817716</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.02230280982891898</v>
+        <v>-0.02230279784632649</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.0300043033824207</v>
+        <v>-0.02999398429076618</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03738547241548872</v>
+        <v>0.03737718402192484</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.01711712931497593</v>
+        <v>-0.01711713357894965</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.03180641512032478</v>
+        <v>-0.03180508369348851</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03611985823327706</v>
+        <v>0.03611868783205468</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01579932258965081</v>
+        <v>-0.01579931047285102</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.03208188452482857</v>
+        <v>-0.0320802225042999</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03576123472359819</v>
+        <v>0.03575973835674598</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2469,13 +2469,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.0268424398712346</v>
+        <v>-0.02684242649544133</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.0233071698221585</v>
+        <v>-0.02329784105241599</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03554913140091865</v>
+        <v>0.03554300575172014</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.01002858573019612</v>
+        <v>-0.01002859426636573</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.03368036671202129</v>
+        <v>-0.03368961015016123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03514170789253313</v>
+        <v>0.03515056948371149</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02382450927930312</v>
+        <v>-0.02382451319355248</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.02574706639589925</v>
+        <v>-0.0257461847986492</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03507874955574165</v>
+        <v>0.03507810514546006</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.002117737606025951</v>
+        <v>-0.002117767528461619</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.03390073435262614</v>
+        <v>-0.03390198453032812</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03396681619191446</v>
+        <v>0.0339680658030335</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.0129183349073232</v>
+        <v>-0.0129183374902741</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.03059272423862361</v>
+        <v>-0.03059956668466083</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03320840485657559</v>
+        <v>0.03321470946435669</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.02703136406341272</v>
+        <v>-0.02703134757583547</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01837005351889272</v>
+        <v>-0.01836287828153929</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03268261784826521</v>
+        <v>0.03267857173360326</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.03003834668503973</v>
+        <v>-0.03003836041727436</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.01075711531315549</v>
+        <v>-0.0107493578829379</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03190639123171347</v>
+        <v>0.03190378960959896</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01860363065742339</v>
+        <v>-0.01860361088254764</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02513411389829612</v>
+        <v>-0.02512347400300949</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0312700936213876</v>
+        <v>0.03126153041437893</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02181844050527048</v>
+        <v>-0.02181842514436963</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02088502339948612</v>
+        <v>-0.02087803280623858</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03020312150224063</v>
+        <v>0.03019827693162037</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.01499493099768728</v>
+        <v>-0.01499491984768195</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.02620881490751953</v>
+        <v>-0.02620769277255902</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03019519720886123</v>
+        <v>0.03019421768649171</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2729,13 +2729,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.02577810264757436</v>
+        <v>-0.0257781063643819</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01530790511593847</v>
+        <v>-0.01530889019520129</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02998070271270264</v>
+        <v>0.02998120889394083</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.0244948811061078</v>
+        <v>-0.02449488742426328</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01664133022894481</v>
+        <v>-0.01664334310702956</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02961305577260052</v>
+        <v>0.02961419220079521</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.01413689836807833</v>
+        <v>-0.01413690174822594</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02518765159546481</v>
+        <v>-0.02519499495627727</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02888372705112512</v>
+        <v>0.02889013260415796</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01381198029005313</v>
+        <v>-0.01381197771001763</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.02483283542453712</v>
+        <v>-0.02483187662573565</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02841549779178541</v>
+        <v>0.02841465862926705</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02559333562972176</v>
+        <v>-0.02559335142367145</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01112563649917549</v>
+        <v>-0.01111759332236034</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02790696357842198</v>
+        <v>0.02790377247572336</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.01482668582376114</v>
+        <v>-0.01482669016842571</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.02239026055618585</v>
+        <v>-0.0223924995835436</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02685431772155851</v>
+        <v>0.02685618697710998</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.02356823005541258</v>
+        <v>-0.02356824290865205</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01261007564735867</v>
+        <v>-0.01261359778894716</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02672967406791488</v>
+        <v>0.02673134719729929</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02659739134158434</v>
+        <v>-0.02659741948941067</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.000675611601052876</v>
+        <v>-0.0006749093034074409</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02660597070608142</v>
+        <v>0.02660598102050567</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.02640571122448675</v>
+        <v>-0.02640574408757185</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0008875162316324225</v>
+        <v>-0.0008841763251251523</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02642062206558347</v>
+        <v>0.02642054292765854</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.0188496447824985</v>
+        <v>-0.01884969676065911</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.01810211427340199</v>
+        <v>-0.01809945105648108</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02613418545877558</v>
+        <v>0.02613237831722854</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.01329540645892272</v>
+        <v>-0.0132954048592727</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.02241992556416547</v>
+        <v>-0.02241814201889492</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02606570342827303</v>
+        <v>0.02606416854517546</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01852001998713891</v>
+        <v>-0.01852007187800585</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.01754555385301317</v>
+        <v>-0.01754290632860366</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02551151897345609</v>
+        <v>0.02550973588300486</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.011626235810726</v>
+        <v>-0.01162623658420056</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.02135507035907549</v>
+        <v>-0.0213531217457654</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02431477717701054</v>
+        <v>0.02431306614561978</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3067,13 +3067,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.01566084395789016</v>
+        <v>-0.01566084771696589</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.01799048822617359</v>
+        <v>-0.01799316227852795</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02385203765068039</v>
+        <v>0.02385405709717819</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.01259590841492518</v>
+        <v>-0.01259591971825772</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.01778127585174788</v>
+        <v>-0.01777496413336959</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02179060989768609</v>
+        <v>0.02178546633633003</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.01400686868157859</v>
+        <v>-0.01400687694815883</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.01635404470920504</v>
+        <v>-0.01635575329750984</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02153246731365602</v>
+        <v>0.02153377040301738</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.0204729055707982</v>
+        <v>-0.02047291639364016</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.006452835480172317</v>
+        <v>-0.006457408139924222</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02146576223303032</v>
+        <v>0.02146714758757063</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3171,13 +3171,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.01240020572452038</v>
+        <v>-0.01240021727622184</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01726255831492627</v>
+        <v>-0.01725615915782464</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02125467058287797</v>
+        <v>0.02124948040253422</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3197,13 +3197,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.005452387782681982</v>
+        <v>-0.005452422503476066</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.02032880264454008</v>
+        <v>-0.02032970452362864</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02104729791430243</v>
+        <v>0.02104817800130119</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.00540419652302557</v>
+        <v>-0.005404231946457019</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.02029245807393153</v>
+        <v>-0.02029338197843164</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02099974273037054</v>
+        <v>0.02100064463424018</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.02005892572445669</v>
+        <v>-0.02005893729660796</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.005675939207756695</v>
+        <v>-0.005673138388939424</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02084650539321687</v>
+        <v>0.02084575411563007</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3275,13 +3275,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.01978197356772097</v>
+        <v>-0.01978198891439288</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.004842727404051676</v>
+        <v>-0.004846981656497084</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02036611123764093</v>
+        <v>0.02036713815408493</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3301,13 +3301,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.01437335772018491</v>
+        <v>-0.01437334723444548</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01001139285363721</v>
+        <v>-0.01000825780723153</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01751631807835931</v>
+        <v>0.01751451783686757</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.01559588416637152</v>
+        <v>-0.01559592335926544</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.001107331125283421</v>
+        <v>-0.001103671907817463</v>
       </c>
       <c r="D112" t="n">
-        <v>0.0156351458308485</v>
+        <v>0.01563492619452317</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.01110732676294405</v>
+        <v>-0.0111073316719833</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.01094033625492289</v>
+        <v>-0.01094098436929821</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01559049919629238</v>
+        <v>0.01559095750236884</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3379,13 +3379,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.007463135308095204</v>
+        <v>-0.007463077837206599</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.01364169693740966</v>
+        <v>-0.01363895173953289</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01554973581637545</v>
+        <v>0.01554729993785132</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3405,13 +3405,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.005980167326017988</v>
+        <v>-0.005980168660971949</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01377908550692151</v>
+        <v>-0.01377484439649787</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01502083881326963</v>
+        <v>0.01501694893649838</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01126329389137071</v>
+        <v>-0.01126325136628852</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.007687070322328419</v>
+        <v>-0.007709739627164982</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01363645259676471</v>
+        <v>0.01364920937120089</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.01357143459321515</v>
+        <v>-0.01357142633969521</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0002307473383361309</v>
+        <v>-0.0002326819131929616</v>
       </c>
       <c r="D117" t="n">
-        <v>0.0135733960839602</v>
+        <v>0.01357342085719367</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3483,13 +3483,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.007630581436597671</v>
+        <v>-0.00763053265628326</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.00942077162918876</v>
+        <v>-0.009448637691650778</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01212339519894806</v>
+        <v>0.01214503119990595</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3509,13 +3509,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.00746078996101198</v>
+        <v>-0.007460740683339521</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.009414443515474885</v>
+        <v>-0.009442751765595699</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01201229093671995</v>
+        <v>0.01203445937509027</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.003540529123045688</v>
+        <v>-0.003540522996510661</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01143716557364885</v>
+        <v>-0.01143733295405785</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01197263976031155</v>
+        <v>0.01197279784306069</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.00955180832600488</v>
+        <v>-0.009551810664684548</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.006064348826385002</v>
+        <v>-0.006064771565071602</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01131429931479689</v>
+        <v>0.01131452787837312</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.007365580481247456</v>
+        <v>-0.007365578659008506</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.008552791464425781</v>
+        <v>-0.008552273945830569</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01128725022579406</v>
+        <v>0.01128685689758552</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.004438274627807037</v>
+        <v>-0.004438280592598104</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.005522933750249755</v>
+        <v>-0.00552225606891078</v>
       </c>
       <c r="D123" t="n">
-        <v>0.007085271969478908</v>
+        <v>0.00708474746968831</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.001360652020236316</v>
+        <v>-0.001360634286553471</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.002618533561166292</v>
+        <v>-0.002628239004897167</v>
       </c>
       <c r="D124" t="n">
-        <v>0.002950947632732135</v>
+        <v>0.002959555022061208</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3661,13 +3661,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.00134611134046659</v>
+        <v>-0.00134612434689058</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.001759848876331013</v>
+        <v>-0.001753568060893416</v>
       </c>
       <c r="D125" t="n">
-        <v>0.002215645235243289</v>
+        <v>0.002210667704897569</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.0006384276440808061</v>
+        <v>-0.0006384412358750662</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.001789186615689477</v>
+        <v>-0.001782744164508606</v>
       </c>
       <c r="D126" t="n">
-        <v>0.001899678552410626</v>
+        <v>0.001893616636955635</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>

--- a/data/quadrant/quadrant3_RP_MAJORITY.xlsx
+++ b/data/quadrant/quadrant3_RP_MAJORITY.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.06286276076650822</v>
+        <v>-0.06286281630906919</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1283277175667869</v>
+        <v>-0.128329552068936</v>
       </c>
       <c r="D2" t="n">
-        <v>0.142897619948998</v>
+        <v>0.142899291840518</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -493,13 +493,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.06258904392007117</v>
+        <v>-0.06258910177674637</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1280475714607964</v>
+        <v>-0.1280494196243185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1425256783033723</v>
+        <v>0.142527364135259</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08601215875468583</v>
+        <v>-0.0860121784109176</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.1128923228609897</v>
+        <v>-0.1128942099683189</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1419252197975794</v>
+        <v>0.1419267327861894</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -545,13 +545,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1318978923724174</v>
+        <v>-0.1318977420299578</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0001564169293228678</v>
+        <v>-0.0001626706502767485</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1318979851193398</v>
+        <v>0.1318978423414946</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -571,13 +571,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-0.08296011793338225</v>
+        <v>-0.08296009076997514</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.09577069264276625</v>
+        <v>-0.09577299193666307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1267059854024106</v>
+        <v>0.1267077055473054</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.05598605383904651</v>
+        <v>-0.05598609394316793</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1093213220247032</v>
+        <v>-0.1093250104870682</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1228234084924265</v>
+        <v>0.1228267097703541</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -623,13 +623,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.04985340619121826</v>
+        <v>-0.04985343160087696</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1082301352008119</v>
+        <v>-0.1082303832340903</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1191600783587046</v>
+        <v>0.1191603142719143</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.0444999635644481</v>
+        <v>-0.04449998900042557</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1089065396986295</v>
+        <v>-0.1089102872442729</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1176472742836245</v>
+        <v>0.1176507530306033</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -675,13 +675,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.02815814249123873</v>
+        <v>-0.02815814414840338</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.1124089608621853</v>
+        <v>-0.1124124387076639</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1158820757092019</v>
+        <v>0.1158854497255223</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -701,13 +701,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.04108166066421081</v>
+        <v>-0.04108178576692487</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.1068498475610886</v>
+        <v>-0.1068497906056135</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1144752932591013</v>
+        <v>0.1144752849931502</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -727,13 +727,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.07816459867810975</v>
+        <v>-0.07816454652653521</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.08007614603300374</v>
+        <v>-0.08007953236123172</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1119012674191356</v>
+        <v>0.1119036542606739</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -753,13 +753,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.08307881790505441</v>
+        <v>-0.08307864767555717</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.07320057000688494</v>
+        <v>-0.07320893843007241</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1107267512114126</v>
+        <v>0.1107321559695172</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.08304974220858825</v>
+        <v>-0.08304957333898487</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.07308725546353552</v>
+        <v>-0.07309559717960266</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1106300438041361</v>
+        <v>0.1106354281359735</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -805,13 +805,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.08033166564112443</v>
+        <v>-0.08033150792171657</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.07555907417231519</v>
+        <v>-0.07556804302204451</v>
       </c>
       <c r="D15" t="n">
-        <v>0.110283045816004</v>
+        <v>0.1102890760282195</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -831,13 +831,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.08852430140619803</v>
+        <v>-0.08852444162262008</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.06503567688431262</v>
+        <v>-0.06503334915568322</v>
       </c>
       <c r="D16" t="n">
-        <v>0.109846216171774</v>
+        <v>0.1098449510309949</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -857,13 +857,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.1003264552441188</v>
+        <v>-0.1003265733582655</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0358757667019397</v>
+        <v>-0.03587308407475693</v>
       </c>
       <c r="D17" t="n">
-        <v>0.106547962243781</v>
+        <v>0.1065471702244879</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.03639952311429387</v>
+        <v>-0.03639958551754144</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09774159312242098</v>
+        <v>-0.09774527837916237</v>
       </c>
       <c r="D18" t="n">
-        <v>0.1042993015751156</v>
+        <v>0.1043027769106305</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -909,13 +909,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.03590840560072181</v>
+        <v>-0.03590846977820926</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.09710433618201403</v>
+        <v>-0.09710802425114777</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1035309890715603</v>
+        <v>0.1035344704713076</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -935,13 +935,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.07905394383875486</v>
+        <v>-0.07905391916717426</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.06471826443163438</v>
+        <v>-0.06472108807529976</v>
       </c>
       <c r="D20" t="n">
-        <v>0.102166431803719</v>
+        <v>0.1021682014001462</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.07141795057735516</v>
+        <v>-0.0714177915959241</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.06897948432347917</v>
+        <v>-0.06898749924917093</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09929095085758144</v>
+        <v>0.09929640481454102</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -987,13 +987,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.08390839033903125</v>
+        <v>-0.08390837966356404</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.04789749981631864</v>
+        <v>-0.04789980754868004</v>
       </c>
       <c r="D22" t="n">
-        <v>0.09661670899974537</v>
+        <v>0.09661784380209172</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.03267178521352771</v>
+        <v>-0.03267190699442053</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.08667739420826207</v>
+        <v>-0.08667646478544908</v>
       </c>
       <c r="D23" t="n">
-        <v>0.09263053608704502</v>
+        <v>0.09262970935048463</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0228896673693903</v>
+        <v>-0.02288983566962581</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.08867171026498435</v>
+        <v>-0.08866876087218271</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0915784312684961</v>
+        <v>0.09157561756052096</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1065,13 +1065,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05305794002328015</v>
+        <v>-0.05305796037472933</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.07415226336641231</v>
+        <v>-0.07414959117976198</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09117951064727078</v>
+        <v>0.09117734933223375</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1091,13 +1091,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.03044122595067075</v>
+        <v>-0.03044137113764492</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.08470755993997864</v>
+        <v>-0.08470648676316704</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0900113267781609</v>
+        <v>0.09001036593914299</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1117,13 +1117,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.06904688691901634</v>
+        <v>-0.06904696306305526</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.05046435216733818</v>
+        <v>-0.05046463856782894</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08552264865447373</v>
+        <v>0.08552287912607086</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.075886378330207</v>
+        <v>-0.07588633837355006</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.03656800338040255</v>
+        <v>-0.03656806795859587</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08423752897197569</v>
+        <v>0.08423752101035158</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1169,13 +1169,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.04855633759647505</v>
+        <v>-0.04855624255274282</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.06758379857207013</v>
+        <v>-0.0675892829049452</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08321831379097396</v>
+        <v>0.08322271237135637</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1195,13 +1195,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-0.05457016099212066</v>
+        <v>-0.05457025685077449</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.06242752671680313</v>
+        <v>-0.06242692510637073</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08291621411209714</v>
+        <v>0.08291582424963236</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1221,13 +1221,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-0.0591790094911057</v>
+        <v>-0.05917900188872598</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.05500542605768189</v>
+        <v>-0.05500851508982049</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08079450513577943</v>
+        <v>0.08079660263236842</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1247,13 +1247,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-0.05942033780254541</v>
+        <v>-0.0594203199293323</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.05173958250973269</v>
+        <v>-0.05174239145480557</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07878934536376123</v>
+        <v>0.07879117649817485</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1273,13 +1273,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>-0.02858222762421465</v>
+        <v>-0.02858229682925312</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.07190735171968124</v>
+        <v>-0.07190894168799064</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07737965473753655</v>
+        <v>0.07738115782748647</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-0.03862047126307679</v>
+        <v>-0.03862045466175865</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06704047180110484</v>
+        <v>-0.06703748514056647</v>
       </c>
       <c r="D34" t="n">
-        <v>0.07736902261174607</v>
+        <v>0.07736642638931066</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-0.01652838099844435</v>
+        <v>-0.01652823209415011</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07443582058807861</v>
+        <v>-0.07443523997079722</v>
       </c>
       <c r="D35" t="n">
-        <v>0.07624879517113936</v>
+        <v>0.07624819608140419</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1351,13 +1351,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>-0.05243025464287924</v>
+        <v>-0.05243020456979001</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.05528510804434758</v>
+        <v>-0.0552911311506742</v>
       </c>
       <c r="D36" t="n">
-        <v>0.07619301000349274</v>
+        <v>0.07619734598495596</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1377,13 +1377,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-0.07022413024320943</v>
+        <v>-0.07022406754861549</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.02762197403128245</v>
+        <v>-0.02762263023150333</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07546126104035158</v>
+        <v>0.07546144289621604</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1403,13 +1403,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.04857986773593001</v>
+        <v>-0.04857981779757144</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.05573000829102796</v>
+        <v>-0.05573621387971303</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07393130171556901</v>
+        <v>0.07393594683839759</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1429,13 +1429,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.04172533870672684</v>
+        <v>-0.04172524609150368</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.06015476361983341</v>
+        <v>-0.06015852473359887</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07320928545170421</v>
+        <v>0.07321232313975271</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1455,13 +1455,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.05665342425032211</v>
+        <v>-0.05665351018549361</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.04374976202652252</v>
+        <v>-0.04375105635862779</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07157969095116531</v>
+        <v>0.07158055007356155</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1481,13 +1481,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.01562295721839542</v>
+        <v>-0.01562280733894081</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.06696732274483878</v>
+        <v>-0.06696596804467626</v>
       </c>
       <c r="D41" t="n">
-        <v>0.06876553721057675</v>
+        <v>0.06876418388456497</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1507,13 +1507,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.02577223924077599</v>
+        <v>-0.02577207511697793</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.0616846602168114</v>
+        <v>-0.06168354191440212</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06685211755469882</v>
+        <v>0.06685102242255503</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1533,13 +1533,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.03503513896259198</v>
+        <v>-0.03503514691547609</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.05490533610121895</v>
+        <v>-0.05490414262420808</v>
       </c>
       <c r="D43" t="n">
-        <v>0.06513107472256195</v>
+        <v>0.06513007290559697</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.04909070678203549</v>
+        <v>-0.04909075514527526</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.03978753525663607</v>
+        <v>-0.03978902639901481</v>
       </c>
       <c r="D44" t="n">
-        <v>0.06318975750988323</v>
+        <v>0.06319073399253143</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1585,13 +1585,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.04796774650416522</v>
+        <v>-0.04796778829815081</v>
       </c>
       <c r="C45" t="n">
-        <v>-0.03943764209156893</v>
+        <v>-0.0394352833177601</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0620985693750713</v>
+        <v>0.06209710367294292</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1611,13 +1611,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.01749224238306576</v>
+        <v>-0.01749207495515602</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.05956892666785749</v>
+        <v>-0.05956662004880729</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06208410076620668</v>
+        <v>0.06208184042274976</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1637,13 +1637,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.03331293842000247</v>
+        <v>-0.03331300702018073</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.05158338760730591</v>
+        <v>-0.05158017032559337</v>
       </c>
       <c r="D47" t="n">
-        <v>0.06140519312908671</v>
+        <v>0.06140252769669856</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1663,13 +1663,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.02891336647243271</v>
+        <v>-0.02891344708849441</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.05324700328160591</v>
+        <v>-0.05324532234443</v>
       </c>
       <c r="D48" t="n">
-        <v>0.06059064382592866</v>
+        <v>0.06058920509547408</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1689,13 +1689,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.0526627828370096</v>
+        <v>-0.0526627089137021</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.02947128501609387</v>
+        <v>-0.02947103235662128</v>
       </c>
       <c r="D49" t="n">
-        <v>0.06034836647862037</v>
+        <v>0.0603481785830719</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1715,13 +1715,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.05248881033641063</v>
+        <v>-0.0524887344741177</v>
       </c>
       <c r="C50" t="n">
-        <v>-0.02972238798962925</v>
+        <v>-0.02972210389376487</v>
       </c>
       <c r="D50" t="n">
-        <v>0.06031994328858196</v>
+        <v>0.06031973728860384</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1741,13 +1741,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.03754073224360154</v>
+        <v>-0.0375407290363249</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.04165075443363708</v>
+        <v>-0.04164813253042</v>
       </c>
       <c r="D51" t="n">
-        <v>0.05607220275927211</v>
+        <v>0.0560702530746045</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1767,13 +1767,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-0.02866602568538295</v>
+        <v>-0.0286660298504094</v>
       </c>
       <c r="C52" t="n">
-        <v>-0.04691622373399993</v>
+        <v>-0.04691545362045</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05498066094595239</v>
+        <v>0.05498000596396074</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1793,13 +1793,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-0.03000597208708071</v>
+        <v>-0.03000597914229989</v>
       </c>
       <c r="C53" t="n">
-        <v>-0.04604085192386383</v>
+        <v>-0.04603826807242652</v>
       </c>
       <c r="D53" t="n">
-        <v>0.05495560396143256</v>
+        <v>0.05495344312594747</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1819,13 +1819,13 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-0.04078428150523888</v>
+        <v>-0.04078440140211429</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.03517418110974291</v>
+        <v>-0.03517284368055518</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0538570388588118</v>
+        <v>0.05385625618538252</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1845,13 +1845,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-0.01615331292536289</v>
+        <v>-0.01615314165158234</v>
       </c>
       <c r="C55" t="n">
-        <v>-0.05083283657525309</v>
+        <v>-0.0508302510262349</v>
       </c>
       <c r="D55" t="n">
-        <v>0.05333766767258467</v>
+        <v>0.0533351516788519</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1871,13 +1871,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-0.02314853118511727</v>
+        <v>-0.02314837262136718</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.04701549120071077</v>
+        <v>-0.04701372093892865</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05240525650039754</v>
+        <v>0.05240359826902271</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1897,13 +1897,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-0.04277593315699511</v>
+        <v>-0.04277600543876559</v>
       </c>
       <c r="C57" t="n">
-        <v>-0.02975617321657958</v>
+        <v>-0.0297517154720406</v>
       </c>
       <c r="D57" t="n">
-        <v>0.05210767987491672</v>
+        <v>0.05210519374137825</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-0.03212228757367495</v>
+        <v>-0.03212218727483408</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.03952732171915342</v>
+        <v>-0.03952516510392167</v>
       </c>
       <c r="D58" t="n">
-        <v>0.05093378565603906</v>
+        <v>0.05093204876903912</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1949,13 +1949,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.00724480013861576</v>
+        <v>-0.007244640823785764</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.05017079550253611</v>
+        <v>-0.05016837147261822</v>
       </c>
       <c r="D59" t="n">
-        <v>0.05069118118968807</v>
+        <v>0.05068875927540815</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1975,13 +1975,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.04475939040132734</v>
+        <v>-0.04475943093517108</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.016518208044798</v>
+        <v>-0.01651493150755364</v>
       </c>
       <c r="D60" t="n">
-        <v>0.04771010612134146</v>
+        <v>0.04770900984446794</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.037049124957026</v>
+        <v>-0.0370490946333006</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.02637239027722662</v>
+        <v>-0.02637652658499792</v>
       </c>
       <c r="D61" t="n">
-        <v>0.04547681419158211</v>
+        <v>0.04547918829350811</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -2027,13 +2027,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.02191435414867571</v>
+        <v>-0.02191443406829892</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.03944807756862054</v>
+        <v>-0.03944609863737496</v>
       </c>
       <c r="D62" t="n">
-        <v>0.04512637523237915</v>
+        <v>0.04512468413455473</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -2053,13 +2053,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.04254511744820546</v>
+        <v>-0.04254505335526995</v>
       </c>
       <c r="C63" t="n">
-        <v>-0.01472647135318309</v>
+        <v>-0.01472689007181029</v>
       </c>
       <c r="D63" t="n">
-        <v>0.04502172783443256</v>
+        <v>0.04502180423072749</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -2079,13 +2079,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01987182314628376</v>
+        <v>-0.01987190414351229</v>
       </c>
       <c r="C64" t="n">
-        <v>-0.0400869533672386</v>
+        <v>-0.04008478439090156</v>
       </c>
       <c r="D64" t="n">
-        <v>0.04474207399556195</v>
+        <v>0.04474016667329265</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.02133215357985057</v>
+        <v>-0.02133223601568068</v>
       </c>
       <c r="C65" t="n">
-        <v>-0.03869353547691212</v>
+        <v>-0.03869161200308958</v>
       </c>
       <c r="D65" t="n">
-        <v>0.04418427847161689</v>
+        <v>0.04418263383758747</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -2131,13 +2131,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.0400775553199067</v>
+        <v>-0.04007763003428937</v>
       </c>
       <c r="C66" t="n">
-        <v>-0.0162301738393385</v>
+        <v>-0.01622562703005811</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04323920655233315</v>
+        <v>0.04323756933135726</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -2157,13 +2157,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02052561572493444</v>
+        <v>-0.02052569206270542</v>
       </c>
       <c r="C67" t="n">
-        <v>-0.03701365842068574</v>
+        <v>-0.03701181473821084</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04232389172288952</v>
+        <v>0.04232231639299353</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -2183,13 +2183,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02082337701645593</v>
+        <v>-0.02082345926909355</v>
       </c>
       <c r="C68" t="n">
-        <v>-0.03642829720779055</v>
+        <v>-0.0364263727820218</v>
       </c>
       <c r="D68" t="n">
-        <v>0.04195990786248924</v>
+        <v>0.04195827796736201</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2209,13 +2209,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.02150088694891023</v>
+        <v>-0.02150096833355309</v>
       </c>
       <c r="C69" t="n">
-        <v>-0.03602932374960366</v>
+        <v>-0.03602757641790235</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0419571246565297</v>
+        <v>0.04195566590853071</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2235,13 +2235,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.01990293424524239</v>
+        <v>-0.01990302033150849</v>
       </c>
       <c r="C70" t="n">
-        <v>-0.03673052357824292</v>
+        <v>-0.03672860939151887</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0417762869808017</v>
+        <v>0.04177464501526264</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2261,13 +2261,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.00851064021779002</v>
+        <v>-0.008510511687306847</v>
       </c>
       <c r="C71" t="n">
-        <v>-0.04005878557385707</v>
+        <v>-0.04005633542217234</v>
       </c>
       <c r="D71" t="n">
-        <v>0.04095286679304544</v>
+        <v>0.04095044342413602</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.01583690644309593</v>
+        <v>-0.01583697113452629</v>
       </c>
       <c r="C72" t="n">
-        <v>-0.03775734543423534</v>
+        <v>-0.03775468330918262</v>
       </c>
       <c r="D72" t="n">
-        <v>0.04094416612812558</v>
+        <v>0.04094173624179234</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2313,13 +2313,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.03531826457806705</v>
+        <v>-0.03531814375504452</v>
       </c>
       <c r="C73" t="n">
-        <v>-0.0177306801329032</v>
+        <v>-0.01773092431744356</v>
       </c>
       <c r="D73" t="n">
-        <v>0.03951906920439389</v>
+        <v>0.03951907078174918</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2339,13 +2339,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.01353005128809129</v>
+        <v>-0.01353008178147648</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.03603293977457597</v>
+        <v>-0.03603184955551856</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03848941460527296</v>
+        <v>0.03848840468771036</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.014871361886847</v>
+        <v>-0.01487136562690305</v>
       </c>
       <c r="C75" t="n">
-        <v>-0.03456619136931031</v>
+        <v>-0.03456452821713175</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03762949627817716</v>
+        <v>0.03762797000213978</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2391,13 +2391,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.02230279784632649</v>
+        <v>-0.02230275477852303</v>
       </c>
       <c r="C76" t="n">
-        <v>-0.02999398429076618</v>
+        <v>-0.03000083658715944</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03737718402192484</v>
+        <v>0.03738265729774137</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2417,13 +2417,13 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-0.01711713357894965</v>
+        <v>-0.01711709474634248</v>
       </c>
       <c r="C77" t="n">
-        <v>-0.03180508369348851</v>
+        <v>-0.03180693463135715</v>
       </c>
       <c r="D77" t="n">
-        <v>0.03611868783205468</v>
+        <v>0.03612029932321564</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2443,13 +2443,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-0.01579931047285102</v>
+        <v>-0.01579930069987291</v>
       </c>
       <c r="C78" t="n">
-        <v>-0.0320802225042999</v>
+        <v>-0.03208107219209257</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03575973835674598</v>
+        <v>0.03576049629967766</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2469,13 +2469,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-0.02684242649544133</v>
+        <v>-0.02684238609113565</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.02329784105241599</v>
+        <v>-0.0233039542810243</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03554300575172014</v>
+        <v>0.03554698265954036</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2495,13 +2495,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-0.01002859426636573</v>
+        <v>-0.01002858139097226</v>
       </c>
       <c r="C80" t="n">
-        <v>-0.03368961015016123</v>
+        <v>-0.03368484108512362</v>
       </c>
       <c r="D80" t="n">
-        <v>0.03515056948371149</v>
+        <v>0.03514599498727255</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2521,13 +2521,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>-0.02382451319355248</v>
+        <v>-0.02382447479450295</v>
       </c>
       <c r="C81" t="n">
-        <v>-0.0257461847986492</v>
+        <v>-0.02574783190831824</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03507810514546006</v>
+        <v>0.03507928800892227</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-0.002117767528461619</v>
+        <v>-0.002117857365731301</v>
       </c>
       <c r="C82" t="n">
-        <v>-0.03390198453032812</v>
+        <v>-0.03390344675573114</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0339680658030335</v>
+        <v>0.03396953078481183</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2573,13 +2573,13 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.0129183374902741</v>
+        <v>-0.01291840769494441</v>
       </c>
       <c r="C83" t="n">
-        <v>-0.03059956668466083</v>
+        <v>-0.03059755502016572</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03321470946435669</v>
+        <v>0.03321288350301532</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2599,13 +2599,13 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.02703134757583547</v>
+        <v>-0.02703118502022587</v>
       </c>
       <c r="C84" t="n">
-        <v>-0.01836287828153929</v>
+        <v>-0.01836425588665688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.03267857173360326</v>
+        <v>0.03267921140217884</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2625,13 +2625,13 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.03003836041727436</v>
+        <v>-0.03003829233814123</v>
       </c>
       <c r="C85" t="n">
-        <v>-0.0107493578829379</v>
+        <v>-0.01075021471587365</v>
       </c>
       <c r="D85" t="n">
-        <v>0.03190378960959896</v>
+        <v>0.0319040142149702</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2651,13 +2651,13 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.01860361088254764</v>
+        <v>-0.01860363481697786</v>
       </c>
       <c r="C86" t="n">
-        <v>-0.02512347400300949</v>
+        <v>-0.02512782367745478</v>
       </c>
       <c r="D86" t="n">
-        <v>0.03126153041437893</v>
+        <v>0.03126504039928188</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2677,13 +2677,13 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.02181842514436963</v>
+        <v>-0.02181825685070492</v>
       </c>
       <c r="C87" t="n">
-        <v>-0.02087803280623858</v>
+        <v>-0.02087906750499453</v>
       </c>
       <c r="D87" t="n">
-        <v>0.03019827693162037</v>
+        <v>0.03019887070539974</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2703,13 +2703,13 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.01499491984768195</v>
+        <v>-0.01499490587175649</v>
       </c>
       <c r="C88" t="n">
-        <v>-0.02620769277255902</v>
+        <v>-0.02620790668941054</v>
       </c>
       <c r="D88" t="n">
-        <v>0.03019421768649171</v>
+        <v>0.03019439641959559</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2729,13 +2729,13 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.0257781063643819</v>
+        <v>-0.02577804808640477</v>
       </c>
       <c r="C89" t="n">
-        <v>-0.01530889019520129</v>
+        <v>-0.01530872558808901</v>
       </c>
       <c r="D89" t="n">
-        <v>0.02998120889394083</v>
+        <v>0.02998107473517932</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2755,13 +2755,13 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.02449488742426328</v>
+        <v>-0.02449488282229957</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.01664334310702956</v>
+        <v>-0.01664358082034844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.02961419220079521</v>
+        <v>0.02961432199125378</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2781,13 +2781,13 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.01413690174822594</v>
+        <v>-0.01413691329459207</v>
       </c>
       <c r="C91" t="n">
-        <v>-0.02519499495627727</v>
+        <v>-0.02519122613635018</v>
       </c>
       <c r="D91" t="n">
-        <v>0.02889013260415796</v>
+        <v>0.02888685153753428</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2807,13 +2807,13 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.01381197771001763</v>
+        <v>-0.01381197285269772</v>
       </c>
       <c r="C92" t="n">
-        <v>-0.02483187662573565</v>
+        <v>-0.02483168124664771</v>
       </c>
       <c r="D92" t="n">
-        <v>0.02841465862926705</v>
+        <v>0.02841448552444289</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2833,13 +2833,13 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.02559335142367145</v>
+        <v>-0.02559327817453189</v>
       </c>
       <c r="C93" t="n">
-        <v>-0.01111759332236034</v>
+        <v>-0.01111876968820783</v>
       </c>
       <c r="D93" t="n">
-        <v>0.02790377247572336</v>
+        <v>0.02790417400853104</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.01482669016842571</v>
+        <v>-0.01482668225350427</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.0223924995835436</v>
+        <v>-0.02239168948927477</v>
       </c>
       <c r="D94" t="n">
-        <v>0.02685618697710998</v>
+        <v>0.02685550716017995</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2885,13 +2885,13 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.02356824290865205</v>
+        <v>-0.02356833388612647</v>
       </c>
       <c r="C95" t="n">
-        <v>-0.01261359778894716</v>
+        <v>-0.01260953065880046</v>
       </c>
       <c r="D95" t="n">
-        <v>0.02673134719729929</v>
+        <v>0.02672950851780044</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.02659741948941067</v>
+        <v>-0.02659747562873482</v>
       </c>
       <c r="C96" t="n">
-        <v>-0.0006749093034074409</v>
+        <v>-0.0006764968870999297</v>
       </c>
       <c r="D96" t="n">
-        <v>0.02660598102050567</v>
+        <v>0.02660607746097494</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2937,13 +2937,13 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.02640574408757185</v>
+        <v>-0.02640578504614946</v>
       </c>
       <c r="C97" t="n">
-        <v>-0.0008841763251251523</v>
+        <v>-0.0008859462093435538</v>
       </c>
       <c r="D97" t="n">
-        <v>0.02642054292765854</v>
+        <v>0.02642064315245373</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2963,13 +2963,13 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.01884969676065911</v>
+        <v>-0.01884967674073297</v>
       </c>
       <c r="C98" t="n">
-        <v>-0.01809945105648108</v>
+        <v>-0.01810450008585613</v>
       </c>
       <c r="D98" t="n">
-        <v>0.02613237831722854</v>
+        <v>0.0261358611220081</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2989,13 +2989,13 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.0132954048592727</v>
+        <v>-0.01329538133652144</v>
       </c>
       <c r="C99" t="n">
-        <v>-0.02241814201889492</v>
+        <v>-0.02241822289556942</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02606416854517546</v>
+        <v>0.02606422610934297</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -3015,13 +3015,13 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.01852007187800585</v>
+        <v>-0.01852005148654308</v>
       </c>
       <c r="C100" t="n">
-        <v>-0.01754290632860366</v>
+        <v>-0.01754789996887288</v>
       </c>
       <c r="D100" t="n">
-        <v>0.02550973588300486</v>
+        <v>0.02551315543757328</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -3041,13 +3041,13 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.01162623658420056</v>
+        <v>-0.01162622764695419</v>
       </c>
       <c r="C101" t="n">
-        <v>-0.0213531217457654</v>
+        <v>-0.0213537618870957</v>
       </c>
       <c r="D101" t="n">
-        <v>0.02431306614561978</v>
+        <v>0.0243136240825917</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -3067,13 +3067,13 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>-0.01566084771696589</v>
+        <v>-0.01566084648024865</v>
       </c>
       <c r="C102" t="n">
-        <v>-0.01799316227852795</v>
+        <v>-0.01799182519815474</v>
       </c>
       <c r="D102" t="n">
-        <v>0.02385405709717819</v>
+        <v>0.02385304773899705</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>-0.01259591971825772</v>
+        <v>-0.01259595501268347</v>
       </c>
       <c r="C103" t="n">
-        <v>-0.01777496413336959</v>
+        <v>-0.01778659586800826</v>
       </c>
       <c r="D103" t="n">
-        <v>0.02178546633633003</v>
+        <v>0.02179497821181279</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -3119,13 +3119,13 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>-0.01400687694815883</v>
+        <v>-0.01400686965741583</v>
       </c>
       <c r="C104" t="n">
-        <v>-0.01635575329750984</v>
+        <v>-0.01635225421398594</v>
       </c>
       <c r="D104" t="n">
-        <v>0.02153377040301738</v>
+        <v>0.02153110808757081</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -3145,13 +3145,13 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>-0.02047291639364016</v>
+        <v>-0.02047297778676306</v>
       </c>
       <c r="C105" t="n">
-        <v>-0.006457408139924222</v>
+        <v>-0.006452566126830974</v>
       </c>
       <c r="D105" t="n">
-        <v>0.02146714758757063</v>
+        <v>0.02146575014012835</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -3171,13 +3171,13 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>-0.01240021727622184</v>
+        <v>-0.01240025275233139</v>
       </c>
       <c r="C106" t="n">
-        <v>-0.01725615915782464</v>
+        <v>-0.01726785252543341</v>
       </c>
       <c r="D106" t="n">
-        <v>0.02124948040253422</v>
+        <v>0.02125899807521086</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -3197,13 +3197,13 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.005452422503476066</v>
+        <v>-0.005452395139094859</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.02032970452362864</v>
+        <v>-0.02032614066756551</v>
       </c>
       <c r="D107" t="n">
-        <v>0.02104817800130119</v>
+        <v>0.02104472872693981</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -3223,13 +3223,13 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.005404231946457019</v>
+        <v>-0.005404207116388103</v>
       </c>
       <c r="C108" t="n">
-        <v>-0.02029338197843164</v>
+        <v>-0.02028985095568678</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02100064463424018</v>
+        <v>0.02099722615872877</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -3249,13 +3249,13 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.02005893729660796</v>
+        <v>-0.0200589611468739</v>
       </c>
       <c r="C109" t="n">
-        <v>-0.005673138388939424</v>
+        <v>-0.005674890965548197</v>
       </c>
       <c r="D109" t="n">
-        <v>0.02084575411563007</v>
+        <v>0.02084625409426493</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -3275,13 +3275,13 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.01978198891439288</v>
+        <v>-0.01978203390653353</v>
       </c>
       <c r="C110" t="n">
-        <v>-0.004846981656497084</v>
+        <v>-0.004844337301094423</v>
       </c>
       <c r="D110" t="n">
-        <v>0.02036713815408493</v>
+        <v>0.02036655271188566</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -3301,13 +3301,13 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.01437334723444548</v>
+        <v>-0.01437327110681321</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01000825780723153</v>
+        <v>-0.01000912434367613</v>
       </c>
       <c r="D111" t="n">
-        <v>0.01751451783686757</v>
+        <v>0.01751495054052741</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -3327,13 +3327,13 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.01559592335926544</v>
+        <v>-0.01559598298639833</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.001103671907817463</v>
+        <v>-0.001107017478970068</v>
       </c>
       <c r="D112" t="n">
-        <v>0.01563492619452317</v>
+        <v>0.01563522219256162</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -3353,13 +3353,13 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.0111073316719833</v>
+        <v>-0.01110733267638403</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.01094098436929821</v>
+        <v>-0.01093922411599206</v>
       </c>
       <c r="D113" t="n">
-        <v>0.01559095750236884</v>
+        <v>0.01558972300728177</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -3379,13 +3379,13 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.007463077837206599</v>
+        <v>-0.007463034888900832</v>
       </c>
       <c r="C114" t="n">
-        <v>-0.01363895173953289</v>
+        <v>-0.01363528365638822</v>
       </c>
       <c r="D114" t="n">
-        <v>0.01554729993785132</v>
+        <v>0.0155440615716459</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3405,13 +3405,13 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.005980168660971949</v>
+        <v>-0.00598015973617961</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.01377484439649787</v>
+        <v>-0.01377799584437099</v>
       </c>
       <c r="D115" t="n">
-        <v>0.01501694893649838</v>
+        <v>0.01501983621607533</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3431,13 +3431,13 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-0.01126325136628852</v>
+        <v>-0.01126338080586888</v>
       </c>
       <c r="C116" t="n">
-        <v>-0.007709739627164982</v>
+        <v>-0.00770890961902292</v>
       </c>
       <c r="D116" t="n">
-        <v>0.01364920937120089</v>
+        <v>0.01364884737596108</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3457,13 +3457,13 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>-0.01357142633969521</v>
+        <v>-0.01357140947467126</v>
       </c>
       <c r="C117" t="n">
-        <v>-0.0002326819131929616</v>
+        <v>-0.0002315714146497363</v>
       </c>
       <c r="D117" t="n">
-        <v>0.01357342085719367</v>
+        <v>0.01357338500335417</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -3483,13 +3483,13 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>-0.00763053265628326</v>
+        <v>-0.00763069207808003</v>
       </c>
       <c r="C118" t="n">
-        <v>-0.009448637691650778</v>
+        <v>-0.009447474278332544</v>
       </c>
       <c r="D118" t="n">
-        <v>0.01214503119990595</v>
+        <v>0.01214422627548698</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3509,13 +3509,13 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>-0.007460740683339521</v>
+        <v>-0.007460901610311838</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.009442751765595699</v>
+        <v>-0.009441469504172144</v>
       </c>
       <c r="D119" t="n">
-        <v>0.01203445937509027</v>
+        <v>0.01203355305954839</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -3535,13 +3535,13 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>-0.003540522996510661</v>
+        <v>-0.003540524459337141</v>
       </c>
       <c r="C120" t="n">
-        <v>-0.01143733295405785</v>
+        <v>-0.01143805123768432</v>
       </c>
       <c r="D120" t="n">
-        <v>0.01197279784306069</v>
+        <v>0.01197348443699896</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3561,13 +3561,13 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>-0.009551810664684548</v>
+        <v>-0.009551799579663161</v>
       </c>
       <c r="C121" t="n">
-        <v>-0.006064771565071602</v>
+        <v>-0.006064388687858248</v>
       </c>
       <c r="D121" t="n">
-        <v>0.01131452787837312</v>
+        <v>0.01131431329632852</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3587,13 +3587,13 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>-0.007365578659008506</v>
+        <v>-0.00736555477603412</v>
       </c>
       <c r="C122" t="n">
-        <v>-0.008552273945830569</v>
+        <v>-0.008552626497315172</v>
       </c>
       <c r="D122" t="n">
-        <v>0.01128685689758552</v>
+        <v>0.01128710844996789</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -3613,13 +3613,13 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>-0.004438280592598104</v>
+        <v>-0.004438281691951367</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.00552225606891078</v>
+        <v>-0.005522869372298636</v>
       </c>
       <c r="D123" t="n">
-        <v>0.00708474746968831</v>
+        <v>0.00708522621237918</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3635,13 +3635,13 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>-0.001360634286553471</v>
+        <v>-0.00136067636616437</v>
       </c>
       <c r="C124" t="n">
-        <v>-0.002628239004897167</v>
+        <v>-0.00262666698988386</v>
       </c>
       <c r="D124" t="n">
-        <v>0.002959555022061208</v>
+        <v>0.00295817843430443</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3661,13 +3661,13 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>-0.00134612434689058</v>
+        <v>-0.001346204390961711</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.001753568060893416</v>
+        <v>-0.00175924372463639</v>
       </c>
       <c r="D125" t="n">
-        <v>0.002210667704897569</v>
+        <v>0.002215221150340776</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3687,13 +3687,13 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>-0.0006384412358750662</v>
+        <v>-0.0006385191547927579</v>
       </c>
       <c r="C126" t="n">
-        <v>-0.001782744164508606</v>
+        <v>-0.001788682134454834</v>
       </c>
       <c r="D126" t="n">
-        <v>0.001893616636955635</v>
+        <v>0.001899234184916425</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
